--- a/natmiOut/OldD7/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qa</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>177.119826508956</v>
+        <v>191.5877736666667</v>
       </c>
       <c r="H2">
-        <v>177.119826508956</v>
+        <v>574.763321</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9786143588951871</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9786143588951871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.75676995707127</v>
+        <v>4.723583666666666</v>
       </c>
       <c r="N2">
-        <v>3.75676995707127</v>
+        <v>14.170751</v>
       </c>
       <c r="O2">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="P2">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="Q2">
-        <v>665.3984430305214</v>
+        <v>904.9808784248967</v>
       </c>
       <c r="R2">
-        <v>665.3984430305214</v>
+        <v>8144.827905824071</v>
       </c>
       <c r="S2">
-        <v>0.1622955372280468</v>
+        <v>0.1372911949647805</v>
       </c>
       <c r="T2">
-        <v>0.1622955372280468</v>
+        <v>0.1372911949647805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>177.119826508956</v>
+        <v>191.5877736666667</v>
       </c>
       <c r="H3">
-        <v>177.119826508956</v>
+        <v>574.763321</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9786143588951871</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9786143588951871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3124400633765</v>
+        <v>10.354856</v>
       </c>
       <c r="N3">
-        <v>10.3124400633765</v>
+        <v>31.064568</v>
       </c>
       <c r="O3">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="P3">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="Q3">
-        <v>1826.537594909253</v>
+        <v>1983.863807678925</v>
       </c>
       <c r="R3">
-        <v>1826.537594909253</v>
+        <v>17854.77426911033</v>
       </c>
       <c r="S3">
-        <v>0.4455058519267143</v>
+        <v>0.3009644063172575</v>
       </c>
       <c r="T3">
-        <v>0.4455058519267143</v>
+        <v>0.3009644063172575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>177.119826508956</v>
+        <v>191.5877736666667</v>
       </c>
       <c r="H4">
-        <v>177.119826508956</v>
+        <v>574.763321</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9786143588951871</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9786143588951871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.360836486514916</v>
+        <v>0.6477360000000001</v>
       </c>
       <c r="N4">
-        <v>0.360836486514916</v>
+        <v>1.943208</v>
       </c>
       <c r="O4">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="P4">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="Q4">
-        <v>63.91129588962317</v>
+        <v>124.098298163752</v>
       </c>
       <c r="R4">
-        <v>63.91129588962317</v>
+        <v>1116.884683473768</v>
       </c>
       <c r="S4">
-        <v>0.01558843157808722</v>
+        <v>0.01882647916014622</v>
       </c>
       <c r="T4">
-        <v>0.01558843157808722</v>
+        <v>0.01882647916014622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>191.5877736666667</v>
+      </c>
+      <c r="H5">
+        <v>574.763321</v>
+      </c>
+      <c r="I5">
+        <v>0.9786143588951871</v>
+      </c>
+      <c r="J5">
+        <v>0.9786143588951871</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>17.94362233333333</v>
+      </c>
+      <c r="N5">
+        <v>53.830867</v>
+      </c>
+      <c r="O5">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="P5">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="Q5">
+        <v>3437.778654358812</v>
+      </c>
+      <c r="R5">
+        <v>30940.00788922931</v>
+      </c>
+      <c r="S5">
+        <v>0.521532278453003</v>
+      </c>
+      <c r="T5">
+        <v>0.521532278453003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>4.186764</v>
+      </c>
+      <c r="H6">
+        <v>12.560292</v>
+      </c>
+      <c r="I6">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="J6">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.723583666666666</v>
+      </c>
+      <c r="N6">
+        <v>14.170751</v>
+      </c>
+      <c r="O6">
+        <v>0.1402914168557431</v>
+      </c>
+      <c r="P6">
+        <v>0.1402914168557431</v>
+      </c>
+      <c r="Q6">
+        <v>19.776530046588</v>
+      </c>
+      <c r="R6">
+        <v>177.988770419292</v>
+      </c>
+      <c r="S6">
+        <v>0.003000221890962616</v>
+      </c>
+      <c r="T6">
+        <v>0.003000221890962616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>177.119826508956</v>
-      </c>
-      <c r="H5">
-        <v>177.119826508956</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>8.71766304337762</v>
-      </c>
-      <c r="N5">
-        <v>8.71766304337762</v>
-      </c>
-      <c r="O5">
-        <v>0.3766101792671516</v>
-      </c>
-      <c r="P5">
-        <v>0.3766101792671516</v>
-      </c>
-      <c r="Q5">
-        <v>1544.070965806581</v>
-      </c>
-      <c r="R5">
-        <v>1544.070965806581</v>
-      </c>
-      <c r="S5">
-        <v>0.3766101792671516</v>
-      </c>
-      <c r="T5">
-        <v>0.3766101792671516</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>4.186764</v>
+      </c>
+      <c r="H7">
+        <v>12.560292</v>
+      </c>
+      <c r="I7">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="J7">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.354856</v>
+      </c>
+      <c r="N7">
+        <v>31.064568</v>
+      </c>
+      <c r="O7">
+        <v>0.3075413758051058</v>
+      </c>
+      <c r="P7">
+        <v>0.3075413758051058</v>
+      </c>
+      <c r="Q7">
+        <v>43.353338325984</v>
+      </c>
+      <c r="R7">
+        <v>390.180044933856</v>
+      </c>
+      <c r="S7">
+        <v>0.00657696948784837</v>
+      </c>
+      <c r="T7">
+        <v>0.00657696948784837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>4.186764</v>
+      </c>
+      <c r="H8">
+        <v>12.560292</v>
+      </c>
+      <c r="I8">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="J8">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6477360000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.943208</v>
+      </c>
+      <c r="O8">
+        <v>0.01923789385371424</v>
+      </c>
+      <c r="P8">
+        <v>0.01923789385371424</v>
+      </c>
+      <c r="Q8">
+        <v>2.711917766304</v>
+      </c>
+      <c r="R8">
+        <v>24.407259896736</v>
+      </c>
+      <c r="S8">
+        <v>0.0004114146935680179</v>
+      </c>
+      <c r="T8">
+        <v>0.0004114146935680179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>4.186764</v>
+      </c>
+      <c r="H9">
+        <v>12.560292</v>
+      </c>
+      <c r="I9">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="J9">
+        <v>0.02138564110481286</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.94362233333333</v>
+      </c>
+      <c r="N9">
+        <v>53.830867</v>
+      </c>
+      <c r="O9">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="P9">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="Q9">
+        <v>75.12571201479601</v>
+      </c>
+      <c r="R9">
+        <v>676.131408133164</v>
+      </c>
+      <c r="S9">
+        <v>0.01139703503243386</v>
+      </c>
+      <c r="T9">
+        <v>0.01139703503243386</v>
       </c>
     </row>
   </sheetData>
